--- a/data/trans_bre/P19C01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P19C01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,87%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 3,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,89; 9,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 12,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 10,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,71; 15,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,81; 60,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,17; 50,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 31,48</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,12%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,11%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,02; 9,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,2; 8,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 6,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,49; 7,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,42; 32,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,66; 29,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 15,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,52; 13,06</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,42</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,05%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,4; 5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,04; 18,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,78; 7,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,74; 3,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,84; 14,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,29; 48,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,57; 16,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,61; 5,09</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,45%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 4,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,22; 7,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,02; 5,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 4,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 15,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,13; 25,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 13,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 8,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 10,29</t>
+          <t>-0,88; 9,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 31,48</t>
+          <t>-2,24; 28,45</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>9,17%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 7,19</t>
+          <t>-10,25; 20,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 13,06</t>
+          <t>-17,62; 47,12</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>-1,91%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 3,48</t>
+          <t>-6,73; 3,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 5,09</t>
+          <t>-9,52; 5,3</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>4,68%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 4,67</t>
+          <t>-6,1; 13,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 8,45</t>
+          <t>-9,84; 30,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C01-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C01-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 3,12</t>
+          <t>-5,42; 2,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,89; 9,31</t>
+          <t>2,0; 9,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 12,05</t>
+          <t>1,34; 12,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 9,45</t>
+          <t>-1,18; 9,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 15,0</t>
+          <t>-21,27; 14,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 60,72</t>
+          <t>11,14; 60,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 50,32</t>
+          <t>4,44; 49,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 28,45</t>
+          <t>-3,11; 26,95</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 9,13</t>
+          <t>2,18; 9,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 8,69</t>
+          <t>1,79; 8,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 6,27</t>
+          <t>-0,71; 6,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 20,0</t>
+          <t>-8,72; 21,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 32,36</t>
+          <t>6,49; 33,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 29,37</t>
+          <t>5,57; 27,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 15,76</t>
+          <t>-1,65; 15,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 47,12</t>
+          <t>-14,83; 50,01</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 5,54</t>
+          <t>-7,97; 6,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 18,78</t>
+          <t>4,95; 18,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 7,65</t>
+          <t>-5,12; 7,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 3,56</t>
+          <t>-6,12; 3,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 14,85</t>
+          <t>-18,6; 15,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,29; 48,03</t>
+          <t>10,43; 46,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 16,21</t>
+          <t>-9,54; 15,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 5,3</t>
+          <t>-8,54; 5,86</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,32</t>
+          <t>-0,91; 4,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 7,11</t>
+          <t>2,37; 7,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 5,38</t>
+          <t>-0,13; 5,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 13,75</t>
+          <t>-5,86; 13,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 15,26</t>
+          <t>-2,91; 15,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 25,16</t>
+          <t>7,59; 26,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,06; 13,72</t>
+          <t>-0,32; 13,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 30,0</t>
+          <t>-10,15; 30,04</t>
         </is>
       </c>
     </row>
